--- a/Vuejs.xlsx
+++ b/Vuejs.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Creating Music/WFH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD62C8DD-0520-B84E-8F75-B9C924FCEA84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E685CFA8-24CB-1C43-9201-911BB28B1889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="6200" windowWidth="33400" windowHeight="20700" xr2:uid="{DE726411-0604-2C4E-BE72-A826A4F287D6}"/>
+    <workbookView xWindow="1140" yWindow="5340" windowWidth="33400" windowHeight="20700" activeTab="1" xr2:uid="{DE726411-0604-2C4E-BE72-A826A4F287D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Vue3" sheetId="1" r:id="rId1"/>
-    <sheet name="Apply for new project" sheetId="2" r:id="rId2"/>
+    <sheet name="Apply cho dự án mới" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
   <si>
     <t>I. VUEJS</t>
   </si>
@@ -332,9 +332,6 @@
   </si>
   <si>
     <t>Ở Vue 3 ta được xem mặt 1 hook mới với cái tên Composition API”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.   Composition API</t>
   </si>
   <si>
     <t xml:space="preserve">Ưu điểm: </t>
@@ -761,6 +758,82 @@
   </si>
   <si>
     <t>đưa tất cả vào trong store, tuy nhiên đến khi quy mô của ứng dụng càng lớn kéo theo store cũng sẽ to ra dẫn đến việc khó khăn trong việc quản lý state</t>
+  </si>
+  <si>
+    <t>&lt;template&gt;
+  &lt;div class="hello" @click="test"&gt;test {{list }} {{ myObj }}&lt;/div&gt;
+&lt;/template&gt;
+&lt;script&gt;
+export default {
+  name: "HelloWorld",
+  data() {
+    return {
+      list: [1, 2],
+      myObj: { name: "Preetish" }
+    };
+  },
+  watch: {
+    list: {
+      handler: () =&gt; {
+        console.log("watcher triggered");
+      },
+      deep: true
+    }
+  },
+  methods: {
+    test() {
+      this.list[2] = 4;
+      this.myObj.last = "HS";
+      delete this.myObj.name;
+    }
+  }
+};
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Ở ví dụ kế bên. Thông thường thì khi click vào thẻ div thì sẽ thay đổi giá trị như đã set ở function test, thế nhưng có một vài trường hợp action sẽ không được thực thi</t>
+  </si>
+  <si>
+    <t>bằng chứng là wather không được kích hoạt đầy đủ.</t>
+  </si>
+  <si>
+    <t>Sau đó để có thể khắc phục thì cần sử dụng methos vue.set() hoặc vue.delete() để có thể khắc phục</t>
+  </si>
+  <si>
+    <t>Thế nhưng trong vue3 nhờ sử dụng ref() để khai báo mà có thể hoạt động không cần 2 phương thức trợ giúp như vue2</t>
+  </si>
+  <si>
+    <t>export default {
+  setup() {
+    let list = ref([1, 2])
+    let a = ref(0)
+    let myObj = ref({ name: 'Preetish' })
+    function test() {
+      list.value[3] = 3
+      myObj.value.last = 'HS'
+      delete myObj.value.name
+    }
+    return { myFun, list, myObj }
+  }
+}</t>
+  </si>
+  <si>
+    <t>npm init vite-app &lt;project-name&gt;</t>
+  </si>
+  <si>
+    <t>Vite (phát âm như “veet”) là một công cụ xây dựng Vue3 mới phục vụ mã sử dụng ES Module nhập trong quá trình phát triển thay vì đóng gói bằng một công cụ như Webpack</t>
+  </si>
+  <si>
+    <t>Vite được xây dựng bởi những người tạo ra Vue, nó tăng tốc đáng kể chi phí phát triển cho phép tải lại nóng nhanh hơn và khởi động máy chủ lạnh hiệu quả hơn</t>
+  </si>
+  <si>
+    <t>Vite loại bỏ quy trình đóng gói chỉ biên dịch mã theo yêu cầu - nghĩa là chỉ mã tác động đến màn hình hiện tại mới được biên dịch. Điều này có nghĩa là bạn không phải đợi toàn bộ dự án của mình được đóng gói để bắt đầu phát triển</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.   Composition API (Largest)</t>
+  </si>
+  <si>
+    <t>Tất cả những kiến thức ở sheet vue3, chunngs ta có thể triển khai cho dự án hoàn toàn mới bằng vue CLI và vite trên nền nodejs</t>
   </si>
 </sst>
 </file>
@@ -954,11 +1027,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -972,6 +1066,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -983,6 +1080,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1010,54 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1623,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2963F807-27EB-574F-B713-63CA8976D24C}">
-  <dimension ref="A1:V272"/>
+  <dimension ref="A1:V304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1682,250 +1755,250 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="12:22" x14ac:dyDescent="0.2">
       <c r="S17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L18" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
+      <c r="L18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L20" s="30"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="32"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="32"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="32"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="35"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="16"/>
     </row>
     <row r="25" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L25"/>
       <c r="S25" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="12:22" x14ac:dyDescent="0.2">
+      <c r="S26" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="S26" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="29"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="10"/>
     </row>
     <row r="27" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="S27" s="30"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="32"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="13"/>
     </row>
     <row r="28" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="S28" s="30"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="32"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="13"/>
     </row>
     <row r="29" spans="12:22" x14ac:dyDescent="0.2">
-      <c r="S29" s="33"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="35"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="16"/>
     </row>
     <row r="31" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L68" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="12:13" x14ac:dyDescent="0.2">
       <c r="M69" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L71" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="12:13" x14ac:dyDescent="0.2">
       <c r="M72" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="12:13" x14ac:dyDescent="0.2">
       <c r="M73" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L75" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="12:13" x14ac:dyDescent="0.2">
       <c r="M76" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="12:13" x14ac:dyDescent="0.2">
       <c r="M77" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="12:13" x14ac:dyDescent="0.2">
       <c r="M78" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="12:13" x14ac:dyDescent="0.2">
       <c r="M79" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L81" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M82" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M83" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L85" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M86" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M87" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M88" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L90" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M91" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M92" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="26" x14ac:dyDescent="0.3">
@@ -2080,7 +2153,7 @@
     </row>
     <row r="132" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2109,7 +2182,7 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -2123,7 +2196,7 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -2137,7 +2210,7 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -2151,7 +2224,7 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -2177,7 +2250,7 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -2185,18 +2258,18 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
-      <c r="N139" s="19"/>
-      <c r="O139" s="19"/>
-      <c r="P139" s="19"/>
-      <c r="Q139" s="19"/>
-      <c r="R139" s="20"/>
+      <c r="I139" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J139" s="35"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="35"/>
+      <c r="M139" s="35"/>
+      <c r="N139" s="35"/>
+      <c r="O139" s="35"/>
+      <c r="P139" s="35"/>
+      <c r="Q139" s="35"/>
+      <c r="R139" s="36"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C140" s="1"/>
@@ -2205,16 +2278,16 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-      <c r="I140" s="21"/>
-      <c r="J140" s="22"/>
-      <c r="K140" s="22"/>
-      <c r="L140" s="22"/>
-      <c r="M140" s="22"/>
-      <c r="N140" s="22"/>
-      <c r="O140" s="22"/>
-      <c r="P140" s="22"/>
-      <c r="Q140" s="22"/>
-      <c r="R140" s="23"/>
+      <c r="I140" s="37"/>
+      <c r="J140" s="38"/>
+      <c r="K140" s="38"/>
+      <c r="L140" s="38"/>
+      <c r="M140" s="38"/>
+      <c r="N140" s="38"/>
+      <c r="O140" s="38"/>
+      <c r="P140" s="38"/>
+      <c r="Q140" s="38"/>
+      <c r="R140" s="39"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
@@ -2224,16 +2297,16 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="21"/>
-      <c r="J141" s="22"/>
-      <c r="K141" s="22"/>
-      <c r="L141" s="22"/>
-      <c r="M141" s="22"/>
-      <c r="N141" s="22"/>
-      <c r="O141" s="22"/>
-      <c r="P141" s="22"/>
-      <c r="Q141" s="22"/>
-      <c r="R141" s="23"/>
+      <c r="I141" s="37"/>
+      <c r="J141" s="38"/>
+      <c r="K141" s="38"/>
+      <c r="L141" s="38"/>
+      <c r="M141" s="38"/>
+      <c r="N141" s="38"/>
+      <c r="O141" s="38"/>
+      <c r="P141" s="38"/>
+      <c r="Q141" s="38"/>
+      <c r="R141" s="39"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
@@ -2243,1449 +2316,1992 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
-      <c r="I142" s="21"/>
-      <c r="J142" s="22"/>
-      <c r="K142" s="22"/>
-      <c r="L142" s="22"/>
-      <c r="M142" s="22"/>
-      <c r="N142" s="22"/>
-      <c r="O142" s="22"/>
-      <c r="P142" s="22"/>
-      <c r="Q142" s="22"/>
-      <c r="R142" s="23"/>
+      <c r="I142" s="37"/>
+      <c r="J142" s="38"/>
+      <c r="K142" s="38"/>
+      <c r="L142" s="38"/>
+      <c r="M142" s="38"/>
+      <c r="N142" s="38"/>
+      <c r="O142" s="38"/>
+      <c r="P142" s="38"/>
+      <c r="Q142" s="38"/>
+      <c r="R142" s="39"/>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I143" s="21"/>
-      <c r="J143" s="22"/>
-      <c r="K143" s="22"/>
-      <c r="L143" s="22"/>
-      <c r="M143" s="22"/>
-      <c r="N143" s="22"/>
-      <c r="O143" s="22"/>
-      <c r="P143" s="22"/>
-      <c r="Q143" s="22"/>
-      <c r="R143" s="23"/>
+      <c r="I143" s="37"/>
+      <c r="J143" s="38"/>
+      <c r="K143" s="38"/>
+      <c r="L143" s="38"/>
+      <c r="M143" s="38"/>
+      <c r="N143" s="38"/>
+      <c r="O143" s="38"/>
+      <c r="P143" s="38"/>
+      <c r="Q143" s="38"/>
+      <c r="R143" s="39"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I144" s="21"/>
-      <c r="J144" s="22"/>
-      <c r="K144" s="22"/>
-      <c r="L144" s="22"/>
-      <c r="M144" s="22"/>
-      <c r="N144" s="22"/>
-      <c r="O144" s="22"/>
-      <c r="P144" s="22"/>
-      <c r="Q144" s="22"/>
-      <c r="R144" s="23"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="38"/>
+      <c r="K144" s="38"/>
+      <c r="L144" s="38"/>
+      <c r="M144" s="38"/>
+      <c r="N144" s="38"/>
+      <c r="O144" s="38"/>
+      <c r="P144" s="38"/>
+      <c r="Q144" s="38"/>
+      <c r="R144" s="39"/>
     </row>
     <row r="145" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I145" s="21"/>
-      <c r="J145" s="22"/>
-      <c r="K145" s="22"/>
-      <c r="L145" s="22"/>
-      <c r="M145" s="22"/>
-      <c r="N145" s="22"/>
-      <c r="O145" s="22"/>
-      <c r="P145" s="22"/>
-      <c r="Q145" s="22"/>
-      <c r="R145" s="23"/>
+      <c r="I145" s="37"/>
+      <c r="J145" s="38"/>
+      <c r="K145" s="38"/>
+      <c r="L145" s="38"/>
+      <c r="M145" s="38"/>
+      <c r="N145" s="38"/>
+      <c r="O145" s="38"/>
+      <c r="P145" s="38"/>
+      <c r="Q145" s="38"/>
+      <c r="R145" s="39"/>
     </row>
     <row r="146" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I146" s="21"/>
-      <c r="J146" s="22"/>
-      <c r="K146" s="22"/>
-      <c r="L146" s="22"/>
-      <c r="M146" s="22"/>
-      <c r="N146" s="22"/>
-      <c r="O146" s="22"/>
-      <c r="P146" s="22"/>
-      <c r="Q146" s="22"/>
-      <c r="R146" s="23"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="38"/>
+      <c r="K146" s="38"/>
+      <c r="L146" s="38"/>
+      <c r="M146" s="38"/>
+      <c r="N146" s="38"/>
+      <c r="O146" s="38"/>
+      <c r="P146" s="38"/>
+      <c r="Q146" s="38"/>
+      <c r="R146" s="39"/>
     </row>
     <row r="147" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I147" s="21"/>
-      <c r="J147" s="22"/>
-      <c r="K147" s="22"/>
-      <c r="L147" s="22"/>
-      <c r="M147" s="22"/>
-      <c r="N147" s="22"/>
-      <c r="O147" s="22"/>
-      <c r="P147" s="22"/>
-      <c r="Q147" s="22"/>
-      <c r="R147" s="23"/>
+      <c r="I147" s="37"/>
+      <c r="J147" s="38"/>
+      <c r="K147" s="38"/>
+      <c r="L147" s="38"/>
+      <c r="M147" s="38"/>
+      <c r="N147" s="38"/>
+      <c r="O147" s="38"/>
+      <c r="P147" s="38"/>
+      <c r="Q147" s="38"/>
+      <c r="R147" s="39"/>
     </row>
     <row r="148" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I148" s="21"/>
-      <c r="J148" s="22"/>
-      <c r="K148" s="22"/>
-      <c r="L148" s="22"/>
-      <c r="M148" s="22"/>
-      <c r="N148" s="22"/>
-      <c r="O148" s="22"/>
-      <c r="P148" s="22"/>
-      <c r="Q148" s="22"/>
-      <c r="R148" s="23"/>
+      <c r="I148" s="37"/>
+      <c r="J148" s="38"/>
+      <c r="K148" s="38"/>
+      <c r="L148" s="38"/>
+      <c r="M148" s="38"/>
+      <c r="N148" s="38"/>
+      <c r="O148" s="38"/>
+      <c r="P148" s="38"/>
+      <c r="Q148" s="38"/>
+      <c r="R148" s="39"/>
     </row>
     <row r="149" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I149" s="21"/>
-      <c r="J149" s="22"/>
-      <c r="K149" s="22"/>
-      <c r="L149" s="22"/>
-      <c r="M149" s="22"/>
-      <c r="N149" s="22"/>
-      <c r="O149" s="22"/>
-      <c r="P149" s="22"/>
-      <c r="Q149" s="22"/>
-      <c r="R149" s="23"/>
+      <c r="I149" s="37"/>
+      <c r="J149" s="38"/>
+      <c r="K149" s="38"/>
+      <c r="L149" s="38"/>
+      <c r="M149" s="38"/>
+      <c r="N149" s="38"/>
+      <c r="O149" s="38"/>
+      <c r="P149" s="38"/>
+      <c r="Q149" s="38"/>
+      <c r="R149" s="39"/>
     </row>
     <row r="150" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I150" s="21"/>
-      <c r="J150" s="22"/>
-      <c r="K150" s="22"/>
-      <c r="L150" s="22"/>
-      <c r="M150" s="22"/>
-      <c r="N150" s="22"/>
-      <c r="O150" s="22"/>
-      <c r="P150" s="22"/>
-      <c r="Q150" s="22"/>
-      <c r="R150" s="23"/>
+      <c r="I150" s="37"/>
+      <c r="J150" s="38"/>
+      <c r="K150" s="38"/>
+      <c r="L150" s="38"/>
+      <c r="M150" s="38"/>
+      <c r="N150" s="38"/>
+      <c r="O150" s="38"/>
+      <c r="P150" s="38"/>
+      <c r="Q150" s="38"/>
+      <c r="R150" s="39"/>
     </row>
     <row r="151" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I151" s="21"/>
-      <c r="J151" s="22"/>
-      <c r="K151" s="22"/>
-      <c r="L151" s="22"/>
-      <c r="M151" s="22"/>
-      <c r="N151" s="22"/>
-      <c r="O151" s="22"/>
-      <c r="P151" s="22"/>
-      <c r="Q151" s="22"/>
-      <c r="R151" s="23"/>
+      <c r="I151" s="37"/>
+      <c r="J151" s="38"/>
+      <c r="K151" s="38"/>
+      <c r="L151" s="38"/>
+      <c r="M151" s="38"/>
+      <c r="N151" s="38"/>
+      <c r="O151" s="38"/>
+      <c r="P151" s="38"/>
+      <c r="Q151" s="38"/>
+      <c r="R151" s="39"/>
     </row>
     <row r="152" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I152" s="21"/>
-      <c r="J152" s="22"/>
-      <c r="K152" s="22"/>
-      <c r="L152" s="22"/>
-      <c r="M152" s="22"/>
-      <c r="N152" s="22"/>
-      <c r="O152" s="22"/>
-      <c r="P152" s="22"/>
-      <c r="Q152" s="22"/>
-      <c r="R152" s="23"/>
+      <c r="I152" s="37"/>
+      <c r="J152" s="38"/>
+      <c r="K152" s="38"/>
+      <c r="L152" s="38"/>
+      <c r="M152" s="38"/>
+      <c r="N152" s="38"/>
+      <c r="O152" s="38"/>
+      <c r="P152" s="38"/>
+      <c r="Q152" s="38"/>
+      <c r="R152" s="39"/>
     </row>
     <row r="153" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I153" s="21"/>
-      <c r="J153" s="22"/>
-      <c r="K153" s="22"/>
-      <c r="L153" s="22"/>
-      <c r="M153" s="22"/>
-      <c r="N153" s="22"/>
-      <c r="O153" s="22"/>
-      <c r="P153" s="22"/>
-      <c r="Q153" s="22"/>
-      <c r="R153" s="23"/>
+      <c r="I153" s="37"/>
+      <c r="J153" s="38"/>
+      <c r="K153" s="38"/>
+      <c r="L153" s="38"/>
+      <c r="M153" s="38"/>
+      <c r="N153" s="38"/>
+      <c r="O153" s="38"/>
+      <c r="P153" s="38"/>
+      <c r="Q153" s="38"/>
+      <c r="R153" s="39"/>
     </row>
     <row r="154" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I154" s="21"/>
-      <c r="J154" s="22"/>
-      <c r="K154" s="22"/>
-      <c r="L154" s="22"/>
-      <c r="M154" s="22"/>
-      <c r="N154" s="22"/>
-      <c r="O154" s="22"/>
-      <c r="P154" s="22"/>
-      <c r="Q154" s="22"/>
-      <c r="R154" s="23"/>
+      <c r="I154" s="37"/>
+      <c r="J154" s="38"/>
+      <c r="K154" s="38"/>
+      <c r="L154" s="38"/>
+      <c r="M154" s="38"/>
+      <c r="N154" s="38"/>
+      <c r="O154" s="38"/>
+      <c r="P154" s="38"/>
+      <c r="Q154" s="38"/>
+      <c r="R154" s="39"/>
     </row>
     <row r="155" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I155" s="21"/>
-      <c r="J155" s="22"/>
-      <c r="K155" s="22"/>
-      <c r="L155" s="22"/>
-      <c r="M155" s="22"/>
-      <c r="N155" s="22"/>
-      <c r="O155" s="22"/>
-      <c r="P155" s="22"/>
-      <c r="Q155" s="22"/>
-      <c r="R155" s="23"/>
+      <c r="I155" s="37"/>
+      <c r="J155" s="38"/>
+      <c r="K155" s="38"/>
+      <c r="L155" s="38"/>
+      <c r="M155" s="38"/>
+      <c r="N155" s="38"/>
+      <c r="O155" s="38"/>
+      <c r="P155" s="38"/>
+      <c r="Q155" s="38"/>
+      <c r="R155" s="39"/>
     </row>
     <row r="156" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I156" s="21"/>
-      <c r="J156" s="22"/>
-      <c r="K156" s="22"/>
-      <c r="L156" s="22"/>
-      <c r="M156" s="22"/>
-      <c r="N156" s="22"/>
-      <c r="O156" s="22"/>
-      <c r="P156" s="22"/>
-      <c r="Q156" s="22"/>
-      <c r="R156" s="23"/>
+      <c r="I156" s="37"/>
+      <c r="J156" s="38"/>
+      <c r="K156" s="38"/>
+      <c r="L156" s="38"/>
+      <c r="M156" s="38"/>
+      <c r="N156" s="38"/>
+      <c r="O156" s="38"/>
+      <c r="P156" s="38"/>
+      <c r="Q156" s="38"/>
+      <c r="R156" s="39"/>
     </row>
     <row r="157" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I157" s="21"/>
-      <c r="J157" s="22"/>
-      <c r="K157" s="22"/>
-      <c r="L157" s="22"/>
-      <c r="M157" s="22"/>
-      <c r="N157" s="22"/>
-      <c r="O157" s="22"/>
-      <c r="P157" s="22"/>
-      <c r="Q157" s="22"/>
-      <c r="R157" s="23"/>
+      <c r="I157" s="37"/>
+      <c r="J157" s="38"/>
+      <c r="K157" s="38"/>
+      <c r="L157" s="38"/>
+      <c r="M157" s="38"/>
+      <c r="N157" s="38"/>
+      <c r="O157" s="38"/>
+      <c r="P157" s="38"/>
+      <c r="Q157" s="38"/>
+      <c r="R157" s="39"/>
     </row>
     <row r="158" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I158" s="21"/>
-      <c r="J158" s="22"/>
-      <c r="K158" s="22"/>
-      <c r="L158" s="22"/>
-      <c r="M158" s="22"/>
-      <c r="N158" s="22"/>
-      <c r="O158" s="22"/>
-      <c r="P158" s="22"/>
-      <c r="Q158" s="22"/>
-      <c r="R158" s="23"/>
+      <c r="I158" s="37"/>
+      <c r="J158" s="38"/>
+      <c r="K158" s="38"/>
+      <c r="L158" s="38"/>
+      <c r="M158" s="38"/>
+      <c r="N158" s="38"/>
+      <c r="O158" s="38"/>
+      <c r="P158" s="38"/>
+      <c r="Q158" s="38"/>
+      <c r="R158" s="39"/>
     </row>
     <row r="159" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I159" s="21"/>
-      <c r="J159" s="22"/>
-      <c r="K159" s="22"/>
-      <c r="L159" s="22"/>
-      <c r="M159" s="22"/>
-      <c r="N159" s="22"/>
-      <c r="O159" s="22"/>
-      <c r="P159" s="22"/>
-      <c r="Q159" s="22"/>
-      <c r="R159" s="23"/>
+      <c r="I159" s="37"/>
+      <c r="J159" s="38"/>
+      <c r="K159" s="38"/>
+      <c r="L159" s="38"/>
+      <c r="M159" s="38"/>
+      <c r="N159" s="38"/>
+      <c r="O159" s="38"/>
+      <c r="P159" s="38"/>
+      <c r="Q159" s="38"/>
+      <c r="R159" s="39"/>
     </row>
     <row r="160" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I160" s="21"/>
-      <c r="J160" s="22"/>
-      <c r="K160" s="22"/>
-      <c r="L160" s="22"/>
-      <c r="M160" s="22"/>
-      <c r="N160" s="22"/>
-      <c r="O160" s="22"/>
-      <c r="P160" s="22"/>
-      <c r="Q160" s="22"/>
-      <c r="R160" s="23"/>
+      <c r="I160" s="37"/>
+      <c r="J160" s="38"/>
+      <c r="K160" s="38"/>
+      <c r="L160" s="38"/>
+      <c r="M160" s="38"/>
+      <c r="N160" s="38"/>
+      <c r="O160" s="38"/>
+      <c r="P160" s="38"/>
+      <c r="Q160" s="38"/>
+      <c r="R160" s="39"/>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I161" s="21"/>
-      <c r="J161" s="22"/>
-      <c r="K161" s="22"/>
-      <c r="L161" s="22"/>
-      <c r="M161" s="22"/>
-      <c r="N161" s="22"/>
-      <c r="O161" s="22"/>
-      <c r="P161" s="22"/>
-      <c r="Q161" s="22"/>
-      <c r="R161" s="23"/>
+      <c r="I161" s="37"/>
+      <c r="J161" s="38"/>
+      <c r="K161" s="38"/>
+      <c r="L161" s="38"/>
+      <c r="M161" s="38"/>
+      <c r="N161" s="38"/>
+      <c r="O161" s="38"/>
+      <c r="P161" s="38"/>
+      <c r="Q161" s="38"/>
+      <c r="R161" s="39"/>
     </row>
     <row r="162" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I162" s="21"/>
-      <c r="J162" s="22"/>
-      <c r="K162" s="22"/>
-      <c r="L162" s="22"/>
-      <c r="M162" s="22"/>
-      <c r="N162" s="22"/>
-      <c r="O162" s="22"/>
-      <c r="P162" s="22"/>
-      <c r="Q162" s="22"/>
-      <c r="R162" s="23"/>
+      <c r="I162" s="37"/>
+      <c r="J162" s="38"/>
+      <c r="K162" s="38"/>
+      <c r="L162" s="38"/>
+      <c r="M162" s="38"/>
+      <c r="N162" s="38"/>
+      <c r="O162" s="38"/>
+      <c r="P162" s="38"/>
+      <c r="Q162" s="38"/>
+      <c r="R162" s="39"/>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I163" s="21"/>
-      <c r="J163" s="22"/>
-      <c r="K163" s="22"/>
-      <c r="L163" s="22"/>
-      <c r="M163" s="22"/>
-      <c r="N163" s="22"/>
-      <c r="O163" s="22"/>
-      <c r="P163" s="22"/>
-      <c r="Q163" s="22"/>
-      <c r="R163" s="23"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="38"/>
+      <c r="K163" s="38"/>
+      <c r="L163" s="38"/>
+      <c r="M163" s="38"/>
+      <c r="N163" s="38"/>
+      <c r="O163" s="38"/>
+      <c r="P163" s="38"/>
+      <c r="Q163" s="38"/>
+      <c r="R163" s="39"/>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I164" s="21"/>
-      <c r="J164" s="22"/>
-      <c r="K164" s="22"/>
-      <c r="L164" s="22"/>
-      <c r="M164" s="22"/>
-      <c r="N164" s="22"/>
-      <c r="O164" s="22"/>
-      <c r="P164" s="22"/>
-      <c r="Q164" s="22"/>
-      <c r="R164" s="23"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="38"/>
+      <c r="K164" s="38"/>
+      <c r="L164" s="38"/>
+      <c r="M164" s="38"/>
+      <c r="N164" s="38"/>
+      <c r="O164" s="38"/>
+      <c r="P164" s="38"/>
+      <c r="Q164" s="38"/>
+      <c r="R164" s="39"/>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I165" s="21"/>
-      <c r="J165" s="22"/>
-      <c r="K165" s="22"/>
-      <c r="L165" s="22"/>
-      <c r="M165" s="22"/>
-      <c r="N165" s="22"/>
-      <c r="O165" s="22"/>
-      <c r="P165" s="22"/>
-      <c r="Q165" s="22"/>
-      <c r="R165" s="23"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="38"/>
+      <c r="K165" s="38"/>
+      <c r="L165" s="38"/>
+      <c r="M165" s="38"/>
+      <c r="N165" s="38"/>
+      <c r="O165" s="38"/>
+      <c r="P165" s="38"/>
+      <c r="Q165" s="38"/>
+      <c r="R165" s="39"/>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I166" s="21"/>
-      <c r="J166" s="22"/>
-      <c r="K166" s="22"/>
-      <c r="L166" s="22"/>
-      <c r="M166" s="22"/>
-      <c r="N166" s="22"/>
-      <c r="O166" s="22"/>
-      <c r="P166" s="22"/>
-      <c r="Q166" s="22"/>
-      <c r="R166" s="23"/>
+      <c r="I166" s="37"/>
+      <c r="J166" s="38"/>
+      <c r="K166" s="38"/>
+      <c r="L166" s="38"/>
+      <c r="M166" s="38"/>
+      <c r="N166" s="38"/>
+      <c r="O166" s="38"/>
+      <c r="P166" s="38"/>
+      <c r="Q166" s="38"/>
+      <c r="R166" s="39"/>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I167" s="21"/>
-      <c r="J167" s="22"/>
-      <c r="K167" s="22"/>
-      <c r="L167" s="22"/>
-      <c r="M167" s="22"/>
-      <c r="N167" s="22"/>
-      <c r="O167" s="22"/>
-      <c r="P167" s="22"/>
-      <c r="Q167" s="22"/>
-      <c r="R167" s="23"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="38"/>
+      <c r="K167" s="38"/>
+      <c r="L167" s="38"/>
+      <c r="M167" s="38"/>
+      <c r="N167" s="38"/>
+      <c r="O167" s="38"/>
+      <c r="P167" s="38"/>
+      <c r="Q167" s="38"/>
+      <c r="R167" s="39"/>
     </row>
     <row r="168" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I168" s="21"/>
-      <c r="J168" s="22"/>
-      <c r="K168" s="22"/>
-      <c r="L168" s="22"/>
-      <c r="M168" s="22"/>
-      <c r="N168" s="22"/>
-      <c r="O168" s="22"/>
-      <c r="P168" s="22"/>
-      <c r="Q168" s="22"/>
-      <c r="R168" s="23"/>
+      <c r="I168" s="37"/>
+      <c r="J168" s="38"/>
+      <c r="K168" s="38"/>
+      <c r="L168" s="38"/>
+      <c r="M168" s="38"/>
+      <c r="N168" s="38"/>
+      <c r="O168" s="38"/>
+      <c r="P168" s="38"/>
+      <c r="Q168" s="38"/>
+      <c r="R168" s="39"/>
     </row>
     <row r="169" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I169" s="21"/>
-      <c r="J169" s="22"/>
-      <c r="K169" s="22"/>
-      <c r="L169" s="22"/>
-      <c r="M169" s="22"/>
-      <c r="N169" s="22"/>
-      <c r="O169" s="22"/>
-      <c r="P169" s="22"/>
-      <c r="Q169" s="22"/>
-      <c r="R169" s="23"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="38"/>
+      <c r="K169" s="38"/>
+      <c r="L169" s="38"/>
+      <c r="M169" s="38"/>
+      <c r="N169" s="38"/>
+      <c r="O169" s="38"/>
+      <c r="P169" s="38"/>
+      <c r="Q169" s="38"/>
+      <c r="R169" s="39"/>
     </row>
     <row r="170" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I170" s="24"/>
-      <c r="J170" s="25"/>
-      <c r="K170" s="25"/>
-      <c r="L170" s="25"/>
-      <c r="M170" s="25"/>
-      <c r="N170" s="25"/>
-      <c r="O170" s="25"/>
-      <c r="P170" s="25"/>
-      <c r="Q170" s="25"/>
-      <c r="R170" s="26"/>
+      <c r="I170" s="40"/>
+      <c r="J170" s="41"/>
+      <c r="K170" s="41"/>
+      <c r="L170" s="41"/>
+      <c r="M170" s="41"/>
+      <c r="N170" s="41"/>
+      <c r="O170" s="41"/>
+      <c r="P170" s="41"/>
+      <c r="Q170" s="41"/>
+      <c r="R170" s="42"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I172" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I172" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J172" s="28"/>
-      <c r="K172" s="28"/>
-      <c r="L172" s="28"/>
-      <c r="M172" s="28"/>
-      <c r="N172" s="28"/>
-      <c r="O172" s="28"/>
-      <c r="P172" s="28"/>
-      <c r="Q172" s="28"/>
-      <c r="R172" s="29"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="9"/>
+      <c r="M172" s="9"/>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9"/>
+      <c r="P172" s="9"/>
+      <c r="Q172" s="9"/>
+      <c r="R172" s="10"/>
     </row>
     <row r="173" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I173" s="30"/>
-      <c r="J173" s="31"/>
-      <c r="K173" s="31"/>
-      <c r="L173" s="31"/>
-      <c r="M173" s="31"/>
-      <c r="N173" s="31"/>
-      <c r="O173" s="31"/>
-      <c r="P173" s="31"/>
-      <c r="Q173" s="31"/>
-      <c r="R173" s="32"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+      <c r="O173" s="12"/>
+      <c r="P173" s="12"/>
+      <c r="Q173" s="12"/>
+      <c r="R173" s="13"/>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I174" s="30"/>
-      <c r="J174" s="31"/>
-      <c r="K174" s="31"/>
-      <c r="L174" s="31"/>
-      <c r="M174" s="31"/>
-      <c r="N174" s="31"/>
-      <c r="O174" s="31"/>
-      <c r="P174" s="31"/>
-      <c r="Q174" s="31"/>
-      <c r="R174" s="32"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="13"/>
     </row>
     <row r="175" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I175" s="30"/>
-      <c r="J175" s="31"/>
-      <c r="K175" s="31"/>
-      <c r="L175" s="31"/>
-      <c r="M175" s="31"/>
-      <c r="N175" s="31"/>
-      <c r="O175" s="31"/>
-      <c r="P175" s="31"/>
-      <c r="Q175" s="31"/>
-      <c r="R175" s="32"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="12"/>
+      <c r="Q175" s="12"/>
+      <c r="R175" s="13"/>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="I176" s="30"/>
-      <c r="J176" s="31"/>
-      <c r="K176" s="31"/>
-      <c r="L176" s="31"/>
-      <c r="M176" s="31"/>
-      <c r="N176" s="31"/>
-      <c r="O176" s="31"/>
-      <c r="P176" s="31"/>
-      <c r="Q176" s="31"/>
-      <c r="R176" s="32"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="12"/>
+      <c r="Q176" s="12"/>
+      <c r="R176" s="13"/>
     </row>
     <row r="177" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I177" s="30"/>
-      <c r="J177" s="31"/>
-      <c r="K177" s="31"/>
-      <c r="L177" s="31"/>
-      <c r="M177" s="31"/>
-      <c r="N177" s="31"/>
-      <c r="O177" s="31"/>
-      <c r="P177" s="31"/>
-      <c r="Q177" s="31"/>
-      <c r="R177" s="32"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="12"/>
+      <c r="Q177" s="12"/>
+      <c r="R177" s="13"/>
     </row>
     <row r="178" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I178" s="30"/>
-      <c r="J178" s="31"/>
-      <c r="K178" s="31"/>
-      <c r="L178" s="31"/>
-      <c r="M178" s="31"/>
-      <c r="N178" s="31"/>
-      <c r="O178" s="31"/>
-      <c r="P178" s="31"/>
-      <c r="Q178" s="31"/>
-      <c r="R178" s="32"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="12"/>
+      <c r="P178" s="12"/>
+      <c r="Q178" s="12"/>
+      <c r="R178" s="13"/>
     </row>
     <row r="179" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I179" s="30"/>
-      <c r="J179" s="31"/>
-      <c r="K179" s="31"/>
-      <c r="L179" s="31"/>
-      <c r="M179" s="31"/>
-      <c r="N179" s="31"/>
-      <c r="O179" s="31"/>
-      <c r="P179" s="31"/>
-      <c r="Q179" s="31"/>
-      <c r="R179" s="32"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
+      <c r="P179" s="12"/>
+      <c r="Q179" s="12"/>
+      <c r="R179" s="13"/>
     </row>
     <row r="180" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I180" s="30"/>
-      <c r="J180" s="31"/>
-      <c r="K180" s="31"/>
-      <c r="L180" s="31"/>
-      <c r="M180" s="31"/>
-      <c r="N180" s="31"/>
-      <c r="O180" s="31"/>
-      <c r="P180" s="31"/>
-      <c r="Q180" s="31"/>
-      <c r="R180" s="32"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="12"/>
+      <c r="P180" s="12"/>
+      <c r="Q180" s="12"/>
+      <c r="R180" s="13"/>
     </row>
     <row r="181" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I181" s="30"/>
-      <c r="J181" s="31"/>
-      <c r="K181" s="31"/>
-      <c r="L181" s="31"/>
-      <c r="M181" s="31"/>
-      <c r="N181" s="31"/>
-      <c r="O181" s="31"/>
-      <c r="P181" s="31"/>
-      <c r="Q181" s="31"/>
-      <c r="R181" s="32"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="12"/>
+      <c r="N181" s="12"/>
+      <c r="O181" s="12"/>
+      <c r="P181" s="12"/>
+      <c r="Q181" s="12"/>
+      <c r="R181" s="13"/>
     </row>
     <row r="182" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I182" s="30"/>
-      <c r="J182" s="31"/>
-      <c r="K182" s="31"/>
-      <c r="L182" s="31"/>
-      <c r="M182" s="31"/>
-      <c r="N182" s="31"/>
-      <c r="O182" s="31"/>
-      <c r="P182" s="31"/>
-      <c r="Q182" s="31"/>
-      <c r="R182" s="32"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+      <c r="O182" s="12"/>
+      <c r="P182" s="12"/>
+      <c r="Q182" s="12"/>
+      <c r="R182" s="13"/>
     </row>
     <row r="183" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I183" s="30"/>
-      <c r="J183" s="31"/>
-      <c r="K183" s="31"/>
-      <c r="L183" s="31"/>
-      <c r="M183" s="31"/>
-      <c r="N183" s="31"/>
-      <c r="O183" s="31"/>
-      <c r="P183" s="31"/>
-      <c r="Q183" s="31"/>
-      <c r="R183" s="32"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
+      <c r="M183" s="12"/>
+      <c r="N183" s="12"/>
+      <c r="O183" s="12"/>
+      <c r="P183" s="12"/>
+      <c r="Q183" s="12"/>
+      <c r="R183" s="13"/>
     </row>
     <row r="184" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I184" s="30"/>
-      <c r="J184" s="31"/>
-      <c r="K184" s="31"/>
-      <c r="L184" s="31"/>
-      <c r="M184" s="31"/>
-      <c r="N184" s="31"/>
-      <c r="O184" s="31"/>
-      <c r="P184" s="31"/>
-      <c r="Q184" s="31"/>
-      <c r="R184" s="32"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="12"/>
+      <c r="N184" s="12"/>
+      <c r="O184" s="12"/>
+      <c r="P184" s="12"/>
+      <c r="Q184" s="12"/>
+      <c r="R184" s="13"/>
     </row>
     <row r="185" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I185" s="30"/>
-      <c r="J185" s="31"/>
-      <c r="K185" s="31"/>
-      <c r="L185" s="31"/>
-      <c r="M185" s="31"/>
-      <c r="N185" s="31"/>
-      <c r="O185" s="31"/>
-      <c r="P185" s="31"/>
-      <c r="Q185" s="31"/>
-      <c r="R185" s="32"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="12"/>
+      <c r="N185" s="12"/>
+      <c r="O185" s="12"/>
+      <c r="P185" s="12"/>
+      <c r="Q185" s="12"/>
+      <c r="R185" s="13"/>
     </row>
     <row r="186" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I186" s="30"/>
-      <c r="J186" s="31"/>
-      <c r="K186" s="31"/>
-      <c r="L186" s="31"/>
-      <c r="M186" s="31"/>
-      <c r="N186" s="31"/>
-      <c r="O186" s="31"/>
-      <c r="P186" s="31"/>
-      <c r="Q186" s="31"/>
-      <c r="R186" s="32"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+      <c r="O186" s="12"/>
+      <c r="P186" s="12"/>
+      <c r="Q186" s="12"/>
+      <c r="R186" s="13"/>
     </row>
     <row r="187" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I187" s="30"/>
-      <c r="J187" s="31"/>
-      <c r="K187" s="31"/>
-      <c r="L187" s="31"/>
-      <c r="M187" s="31"/>
-      <c r="N187" s="31"/>
-      <c r="O187" s="31"/>
-      <c r="P187" s="31"/>
-      <c r="Q187" s="31"/>
-      <c r="R187" s="32"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
+      <c r="O187" s="12"/>
+      <c r="P187" s="12"/>
+      <c r="Q187" s="12"/>
+      <c r="R187" s="13"/>
     </row>
     <row r="188" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I188" s="30"/>
-      <c r="J188" s="31"/>
-      <c r="K188" s="31"/>
-      <c r="L188" s="31"/>
-      <c r="M188" s="31"/>
-      <c r="N188" s="31"/>
-      <c r="O188" s="31"/>
-      <c r="P188" s="31"/>
-      <c r="Q188" s="31"/>
-      <c r="R188" s="32"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="12"/>
+      <c r="N188" s="12"/>
+      <c r="O188" s="12"/>
+      <c r="P188" s="12"/>
+      <c r="Q188" s="12"/>
+      <c r="R188" s="13"/>
     </row>
     <row r="189" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I189" s="30"/>
-      <c r="J189" s="31"/>
-      <c r="K189" s="31"/>
-      <c r="L189" s="31"/>
-      <c r="M189" s="31"/>
-      <c r="N189" s="31"/>
-      <c r="O189" s="31"/>
-      <c r="P189" s="31"/>
-      <c r="Q189" s="31"/>
-      <c r="R189" s="32"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
+      <c r="O189" s="12"/>
+      <c r="P189" s="12"/>
+      <c r="Q189" s="12"/>
+      <c r="R189" s="13"/>
     </row>
     <row r="190" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I190" s="30"/>
-      <c r="J190" s="31"/>
-      <c r="K190" s="31"/>
-      <c r="L190" s="31"/>
-      <c r="M190" s="31"/>
-      <c r="N190" s="31"/>
-      <c r="O190" s="31"/>
-      <c r="P190" s="31"/>
-      <c r="Q190" s="31"/>
-      <c r="R190" s="32"/>
+      <c r="I190" s="11"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
+      <c r="O190" s="12"/>
+      <c r="P190" s="12"/>
+      <c r="Q190" s="12"/>
+      <c r="R190" s="13"/>
     </row>
     <row r="191" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I191" s="30"/>
-      <c r="J191" s="31"/>
-      <c r="K191" s="31"/>
-      <c r="L191" s="31"/>
-      <c r="M191" s="31"/>
-      <c r="N191" s="31"/>
-      <c r="O191" s="31"/>
-      <c r="P191" s="31"/>
-      <c r="Q191" s="31"/>
-      <c r="R191" s="32"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="12"/>
+      <c r="O191" s="12"/>
+      <c r="P191" s="12"/>
+      <c r="Q191" s="12"/>
+      <c r="R191" s="13"/>
     </row>
     <row r="192" spans="9:18" x14ac:dyDescent="0.2">
-      <c r="I192" s="30"/>
-      <c r="J192" s="31"/>
-      <c r="K192" s="31"/>
-      <c r="L192" s="31"/>
-      <c r="M192" s="31"/>
-      <c r="N192" s="31"/>
-      <c r="O192" s="31"/>
-      <c r="P192" s="31"/>
-      <c r="Q192" s="31"/>
-      <c r="R192" s="32"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+      <c r="O192" s="12"/>
+      <c r="P192" s="12"/>
+      <c r="Q192" s="12"/>
+      <c r="R192" s="13"/>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I193" s="30"/>
-      <c r="J193" s="31"/>
-      <c r="K193" s="31"/>
-      <c r="L193" s="31"/>
-      <c r="M193" s="31"/>
-      <c r="N193" s="31"/>
-      <c r="O193" s="31"/>
-      <c r="P193" s="31"/>
-      <c r="Q193" s="31"/>
-      <c r="R193" s="32"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="12"/>
+      <c r="N193" s="12"/>
+      <c r="O193" s="12"/>
+      <c r="P193" s="12"/>
+      <c r="Q193" s="12"/>
+      <c r="R193" s="13"/>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I194" s="30"/>
-      <c r="J194" s="31"/>
-      <c r="K194" s="31"/>
-      <c r="L194" s="31"/>
-      <c r="M194" s="31"/>
-      <c r="N194" s="31"/>
-      <c r="O194" s="31"/>
-      <c r="P194" s="31"/>
-      <c r="Q194" s="31"/>
-      <c r="R194" s="32"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
+      <c r="O194" s="12"/>
+      <c r="P194" s="12"/>
+      <c r="Q194" s="12"/>
+      <c r="R194" s="13"/>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I195" s="30"/>
-      <c r="J195" s="31"/>
-      <c r="K195" s="31"/>
-      <c r="L195" s="31"/>
-      <c r="M195" s="31"/>
-      <c r="N195" s="31"/>
-      <c r="O195" s="31"/>
-      <c r="P195" s="31"/>
-      <c r="Q195" s="31"/>
-      <c r="R195" s="32"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="12"/>
+      <c r="P195" s="12"/>
+      <c r="Q195" s="12"/>
+      <c r="R195" s="13"/>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I196" s="30"/>
-      <c r="J196" s="31"/>
-      <c r="K196" s="31"/>
-      <c r="L196" s="31"/>
-      <c r="M196" s="31"/>
-      <c r="N196" s="31"/>
-      <c r="O196" s="31"/>
-      <c r="P196" s="31"/>
-      <c r="Q196" s="31"/>
-      <c r="R196" s="32"/>
+      <c r="I196" s="11"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="13"/>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I197" s="30"/>
-      <c r="J197" s="31"/>
-      <c r="K197" s="31"/>
-      <c r="L197" s="31"/>
-      <c r="M197" s="31"/>
-      <c r="N197" s="31"/>
-      <c r="O197" s="31"/>
-      <c r="P197" s="31"/>
-      <c r="Q197" s="31"/>
-      <c r="R197" s="32"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+      <c r="O197" s="12"/>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="12"/>
+      <c r="R197" s="13"/>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I198" s="30"/>
-      <c r="J198" s="31"/>
-      <c r="K198" s="31"/>
-      <c r="L198" s="31"/>
-      <c r="M198" s="31"/>
-      <c r="N198" s="31"/>
-      <c r="O198" s="31"/>
-      <c r="P198" s="31"/>
-      <c r="Q198" s="31"/>
-      <c r="R198" s="32"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="12"/>
+      <c r="O198" s="12"/>
+      <c r="P198" s="12"/>
+      <c r="Q198" s="12"/>
+      <c r="R198" s="13"/>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I199" s="30"/>
-      <c r="J199" s="31"/>
-      <c r="K199" s="31"/>
-      <c r="L199" s="31"/>
-      <c r="M199" s="31"/>
-      <c r="N199" s="31"/>
-      <c r="O199" s="31"/>
-      <c r="P199" s="31"/>
-      <c r="Q199" s="31"/>
-      <c r="R199" s="32"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="12"/>
+      <c r="N199" s="12"/>
+      <c r="O199" s="12"/>
+      <c r="P199" s="12"/>
+      <c r="Q199" s="12"/>
+      <c r="R199" s="13"/>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I200" s="30"/>
-      <c r="J200" s="31"/>
-      <c r="K200" s="31"/>
-      <c r="L200" s="31"/>
-      <c r="M200" s="31"/>
-      <c r="N200" s="31"/>
-      <c r="O200" s="31"/>
-      <c r="P200" s="31"/>
-      <c r="Q200" s="31"/>
-      <c r="R200" s="32"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="12"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="12"/>
+      <c r="R200" s="13"/>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I201" s="30"/>
-      <c r="J201" s="31"/>
-      <c r="K201" s="31"/>
-      <c r="L201" s="31"/>
-      <c r="M201" s="31"/>
-      <c r="N201" s="31"/>
-      <c r="O201" s="31"/>
-      <c r="P201" s="31"/>
-      <c r="Q201" s="31"/>
-      <c r="R201" s="32"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="12"/>
+      <c r="N201" s="12"/>
+      <c r="O201" s="12"/>
+      <c r="P201" s="12"/>
+      <c r="Q201" s="12"/>
+      <c r="R201" s="13"/>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="I202" s="33"/>
-      <c r="J202" s="34"/>
-      <c r="K202" s="34"/>
-      <c r="L202" s="34"/>
-      <c r="M202" s="34"/>
-      <c r="N202" s="34"/>
-      <c r="O202" s="34"/>
-      <c r="P202" s="34"/>
-      <c r="Q202" s="34"/>
-      <c r="R202" s="35"/>
+      <c r="I202" s="14"/>
+      <c r="J202" s="15"/>
+      <c r="K202" s="15"/>
+      <c r="L202" s="15"/>
+      <c r="M202" s="15"/>
+      <c r="N202" s="15"/>
+      <c r="O202" s="15"/>
+      <c r="P202" s="15"/>
+      <c r="Q202" s="15"/>
+      <c r="R202" s="16"/>
     </row>
     <row r="204" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C205" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="208" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B209" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B211" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H211" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H211" s="2" t="s">
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B212" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B212" s="10" t="s">
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
+      <c r="E212" s="18"/>
+      <c r="F212" s="19"/>
+      <c r="I212" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
-      <c r="F212" s="12"/>
-      <c r="I212" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J212" s="11"/>
-      <c r="K212" s="11"/>
-      <c r="L212" s="11"/>
-      <c r="M212" s="11"/>
-      <c r="N212" s="12"/>
+      <c r="J212" s="18"/>
+      <c r="K212" s="18"/>
+      <c r="L212" s="18"/>
+      <c r="M212" s="18"/>
+      <c r="N212" s="19"/>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B213" s="13"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-      <c r="E213" s="9"/>
-      <c r="F213" s="14"/>
-      <c r="I213" s="13"/>
-      <c r="J213" s="9"/>
-      <c r="K213" s="9"/>
-      <c r="L213" s="9"/>
-      <c r="M213" s="9"/>
-      <c r="N213" s="14"/>
+      <c r="B213" s="20"/>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="22"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="21"/>
+      <c r="K213" s="21"/>
+      <c r="L213" s="21"/>
+      <c r="M213" s="21"/>
+      <c r="N213" s="22"/>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B214" s="13"/>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9"/>
-      <c r="F214" s="14"/>
-      <c r="I214" s="13"/>
-      <c r="J214" s="9"/>
-      <c r="K214" s="9"/>
-      <c r="L214" s="9"/>
-      <c r="M214" s="9"/>
-      <c r="N214" s="14"/>
+      <c r="B214" s="20"/>
+      <c r="C214" s="21"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="22"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="21"/>
+      <c r="K214" s="21"/>
+      <c r="L214" s="21"/>
+      <c r="M214" s="21"/>
+      <c r="N214" s="22"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B215" s="13"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
-      <c r="F215" s="14"/>
-      <c r="I215" s="13"/>
-      <c r="J215" s="9"/>
-      <c r="K215" s="9"/>
-      <c r="L215" s="9"/>
-      <c r="M215" s="9"/>
-      <c r="N215" s="14"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="21"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="22"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="21"/>
+      <c r="K215" s="21"/>
+      <c r="L215" s="21"/>
+      <c r="M215" s="21"/>
+      <c r="N215" s="22"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B216" s="15"/>
-      <c r="C216" s="16"/>
-      <c r="D216" s="16"/>
-      <c r="E216" s="16"/>
-      <c r="F216" s="17"/>
-      <c r="I216" s="15"/>
-      <c r="J216" s="16"/>
-      <c r="K216" s="16"/>
-      <c r="L216" s="16"/>
-      <c r="M216" s="16"/>
-      <c r="N216" s="17"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="24"/>
+      <c r="D216" s="24"/>
+      <c r="E216" s="24"/>
+      <c r="F216" s="25"/>
+      <c r="I216" s="23"/>
+      <c r="J216" s="24"/>
+      <c r="K216" s="24"/>
+      <c r="L216" s="24"/>
+      <c r="M216" s="24"/>
+      <c r="N216" s="25"/>
     </row>
     <row r="219" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B220" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B221" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B222" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="225" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B225" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B225" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C225" s="28"/>
-      <c r="D225" s="28"/>
-      <c r="E225" s="28"/>
-      <c r="F225" s="28"/>
-      <c r="G225" s="28"/>
-      <c r="H225" s="28"/>
-      <c r="I225" s="28"/>
-      <c r="J225" s="28"/>
-      <c r="K225" s="28"/>
-      <c r="L225" s="28"/>
-      <c r="M225" s="28"/>
-      <c r="N225" s="28"/>
-      <c r="O225" s="29"/>
+      <c r="C225" s="9"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+      <c r="H225" s="9"/>
+      <c r="I225" s="9"/>
+      <c r="J225" s="9"/>
+      <c r="K225" s="9"/>
+      <c r="L225" s="9"/>
+      <c r="M225" s="9"/>
+      <c r="N225" s="9"/>
+      <c r="O225" s="10"/>
     </row>
     <row r="226" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B226" s="30"/>
-      <c r="C226" s="31"/>
-      <c r="D226" s="31"/>
-      <c r="E226" s="31"/>
-      <c r="F226" s="31"/>
-      <c r="G226" s="31"/>
-      <c r="H226" s="31"/>
-      <c r="I226" s="31"/>
-      <c r="J226" s="31"/>
-      <c r="K226" s="31"/>
-      <c r="L226" s="31"/>
-      <c r="M226" s="31"/>
-      <c r="N226" s="31"/>
-      <c r="O226" s="32"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="12"/>
+      <c r="J226" s="12"/>
+      <c r="K226" s="12"/>
+      <c r="L226" s="12"/>
+      <c r="M226" s="12"/>
+      <c r="N226" s="12"/>
+      <c r="O226" s="13"/>
     </row>
     <row r="227" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B227" s="30"/>
-      <c r="C227" s="31"/>
-      <c r="D227" s="31"/>
-      <c r="E227" s="31"/>
-      <c r="F227" s="31"/>
-      <c r="G227" s="31"/>
-      <c r="H227" s="31"/>
-      <c r="I227" s="31"/>
-      <c r="J227" s="31"/>
-      <c r="K227" s="31"/>
-      <c r="L227" s="31"/>
-      <c r="M227" s="31"/>
-      <c r="N227" s="31"/>
-      <c r="O227" s="32"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+      <c r="J227" s="12"/>
+      <c r="K227" s="12"/>
+      <c r="L227" s="12"/>
+      <c r="M227" s="12"/>
+      <c r="N227" s="12"/>
+      <c r="O227" s="13"/>
     </row>
     <row r="228" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B228" s="30"/>
-      <c r="C228" s="31"/>
-      <c r="D228" s="31"/>
-      <c r="E228" s="31"/>
-      <c r="F228" s="31"/>
-      <c r="G228" s="31"/>
-      <c r="H228" s="31"/>
-      <c r="I228" s="31"/>
-      <c r="J228" s="31"/>
-      <c r="K228" s="31"/>
-      <c r="L228" s="31"/>
-      <c r="M228" s="31"/>
-      <c r="N228" s="31"/>
-      <c r="O228" s="32"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="12"/>
+      <c r="J228" s="12"/>
+      <c r="K228" s="12"/>
+      <c r="L228" s="12"/>
+      <c r="M228" s="12"/>
+      <c r="N228" s="12"/>
+      <c r="O228" s="13"/>
     </row>
     <row r="229" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B229" s="30"/>
-      <c r="C229" s="31"/>
-      <c r="D229" s="31"/>
-      <c r="E229" s="31"/>
-      <c r="F229" s="31"/>
-      <c r="G229" s="31"/>
-      <c r="H229" s="31"/>
-      <c r="I229" s="31"/>
-      <c r="J229" s="31"/>
-      <c r="K229" s="31"/>
-      <c r="L229" s="31"/>
-      <c r="M229" s="31"/>
-      <c r="N229" s="31"/>
-      <c r="O229" s="32"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="12"/>
+      <c r="J229" s="12"/>
+      <c r="K229" s="12"/>
+      <c r="L229" s="12"/>
+      <c r="M229" s="12"/>
+      <c r="N229" s="12"/>
+      <c r="O229" s="13"/>
     </row>
     <row r="230" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B230" s="30"/>
-      <c r="C230" s="31"/>
-      <c r="D230" s="31"/>
-      <c r="E230" s="31"/>
-      <c r="F230" s="31"/>
-      <c r="G230" s="31"/>
-      <c r="H230" s="31"/>
-      <c r="I230" s="31"/>
-      <c r="J230" s="31"/>
-      <c r="K230" s="31"/>
-      <c r="L230" s="31"/>
-      <c r="M230" s="31"/>
-      <c r="N230" s="31"/>
-      <c r="O230" s="32"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="12"/>
+      <c r="J230" s="12"/>
+      <c r="K230" s="12"/>
+      <c r="L230" s="12"/>
+      <c r="M230" s="12"/>
+      <c r="N230" s="12"/>
+      <c r="O230" s="13"/>
     </row>
     <row r="231" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B231" s="30"/>
-      <c r="C231" s="31"/>
-      <c r="D231" s="31"/>
-      <c r="E231" s="31"/>
-      <c r="F231" s="31"/>
-      <c r="G231" s="31"/>
-      <c r="H231" s="31"/>
-      <c r="I231" s="31"/>
-      <c r="J231" s="31"/>
-      <c r="K231" s="31"/>
-      <c r="L231" s="31"/>
-      <c r="M231" s="31"/>
-      <c r="N231" s="31"/>
-      <c r="O231" s="32"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="12"/>
+      <c r="J231" s="12"/>
+      <c r="K231" s="12"/>
+      <c r="L231" s="12"/>
+      <c r="M231" s="12"/>
+      <c r="N231" s="12"/>
+      <c r="O231" s="13"/>
     </row>
     <row r="232" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B232" s="30"/>
-      <c r="C232" s="31"/>
-      <c r="D232" s="31"/>
-      <c r="E232" s="31"/>
-      <c r="F232" s="31"/>
-      <c r="G232" s="31"/>
-      <c r="H232" s="31"/>
-      <c r="I232" s="31"/>
-      <c r="J232" s="31"/>
-      <c r="K232" s="31"/>
-      <c r="L232" s="31"/>
-      <c r="M232" s="31"/>
-      <c r="N232" s="31"/>
-      <c r="O232" s="32"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="12"/>
+      <c r="J232" s="12"/>
+      <c r="K232" s="12"/>
+      <c r="L232" s="12"/>
+      <c r="M232" s="12"/>
+      <c r="N232" s="12"/>
+      <c r="O232" s="13"/>
     </row>
     <row r="233" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B233" s="30"/>
-      <c r="C233" s="31"/>
-      <c r="D233" s="31"/>
-      <c r="E233" s="31"/>
-      <c r="F233" s="31"/>
-      <c r="G233" s="31"/>
-      <c r="H233" s="31"/>
-      <c r="I233" s="31"/>
-      <c r="J233" s="31"/>
-      <c r="K233" s="31"/>
-      <c r="L233" s="31"/>
-      <c r="M233" s="31"/>
-      <c r="N233" s="31"/>
-      <c r="O233" s="32"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
+      <c r="F233" s="12"/>
+      <c r="G233" s="12"/>
+      <c r="H233" s="12"/>
+      <c r="I233" s="12"/>
+      <c r="J233" s="12"/>
+      <c r="K233" s="12"/>
+      <c r="L233" s="12"/>
+      <c r="M233" s="12"/>
+      <c r="N233" s="12"/>
+      <c r="O233" s="13"/>
     </row>
     <row r="234" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B234" s="30"/>
-      <c r="C234" s="31"/>
-      <c r="D234" s="31"/>
-      <c r="E234" s="31"/>
-      <c r="F234" s="31"/>
-      <c r="G234" s="31"/>
-      <c r="H234" s="31"/>
-      <c r="I234" s="31"/>
-      <c r="J234" s="31"/>
-      <c r="K234" s="31"/>
-      <c r="L234" s="31"/>
-      <c r="M234" s="31"/>
-      <c r="N234" s="31"/>
-      <c r="O234" s="32"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="12"/>
+      <c r="E234" s="12"/>
+      <c r="F234" s="12"/>
+      <c r="G234" s="12"/>
+      <c r="H234" s="12"/>
+      <c r="I234" s="12"/>
+      <c r="J234" s="12"/>
+      <c r="K234" s="12"/>
+      <c r="L234" s="12"/>
+      <c r="M234" s="12"/>
+      <c r="N234" s="12"/>
+      <c r="O234" s="13"/>
     </row>
     <row r="235" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B235" s="30"/>
-      <c r="C235" s="31"/>
-      <c r="D235" s="31"/>
-      <c r="E235" s="31"/>
-      <c r="F235" s="31"/>
-      <c r="G235" s="31"/>
-      <c r="H235" s="31"/>
-      <c r="I235" s="31"/>
-      <c r="J235" s="31"/>
-      <c r="K235" s="31"/>
-      <c r="L235" s="31"/>
-      <c r="M235" s="31"/>
-      <c r="N235" s="31"/>
-      <c r="O235" s="32"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
+      <c r="F235" s="12"/>
+      <c r="G235" s="12"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="12"/>
+      <c r="J235" s="12"/>
+      <c r="K235" s="12"/>
+      <c r="L235" s="12"/>
+      <c r="M235" s="12"/>
+      <c r="N235" s="12"/>
+      <c r="O235" s="13"/>
     </row>
     <row r="236" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B236" s="30"/>
-      <c r="C236" s="31"/>
-      <c r="D236" s="31"/>
-      <c r="E236" s="31"/>
-      <c r="F236" s="31"/>
-      <c r="G236" s="31"/>
-      <c r="H236" s="31"/>
-      <c r="I236" s="31"/>
-      <c r="J236" s="31"/>
-      <c r="K236" s="31"/>
-      <c r="L236" s="31"/>
-      <c r="M236" s="31"/>
-      <c r="N236" s="31"/>
-      <c r="O236" s="32"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12"/>
+      <c r="G236" s="12"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="12"/>
+      <c r="J236" s="12"/>
+      <c r="K236" s="12"/>
+      <c r="L236" s="12"/>
+      <c r="M236" s="12"/>
+      <c r="N236" s="12"/>
+      <c r="O236" s="13"/>
     </row>
     <row r="237" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B237" s="30"/>
-      <c r="C237" s="31"/>
-      <c r="D237" s="31"/>
-      <c r="E237" s="31"/>
-      <c r="F237" s="31"/>
-      <c r="G237" s="31"/>
-      <c r="H237" s="31"/>
-      <c r="I237" s="31"/>
-      <c r="J237" s="31"/>
-      <c r="K237" s="31"/>
-      <c r="L237" s="31"/>
-      <c r="M237" s="31"/>
-      <c r="N237" s="31"/>
-      <c r="O237" s="32"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
+      <c r="F237" s="12"/>
+      <c r="G237" s="12"/>
+      <c r="H237" s="12"/>
+      <c r="I237" s="12"/>
+      <c r="J237" s="12"/>
+      <c r="K237" s="12"/>
+      <c r="L237" s="12"/>
+      <c r="M237" s="12"/>
+      <c r="N237" s="12"/>
+      <c r="O237" s="13"/>
     </row>
     <row r="238" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B238" s="30"/>
-      <c r="C238" s="31"/>
-      <c r="D238" s="31"/>
-      <c r="E238" s="31"/>
-      <c r="F238" s="31"/>
-      <c r="G238" s="31"/>
-      <c r="H238" s="31"/>
-      <c r="I238" s="31"/>
-      <c r="J238" s="31"/>
-      <c r="K238" s="31"/>
-      <c r="L238" s="31"/>
-      <c r="M238" s="31"/>
-      <c r="N238" s="31"/>
-      <c r="O238" s="32"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12"/>
+      <c r="G238" s="12"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="12"/>
+      <c r="J238" s="12"/>
+      <c r="K238" s="12"/>
+      <c r="L238" s="12"/>
+      <c r="M238" s="12"/>
+      <c r="N238" s="12"/>
+      <c r="O238" s="13"/>
     </row>
     <row r="239" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B239" s="30"/>
-      <c r="C239" s="31"/>
-      <c r="D239" s="31"/>
-      <c r="E239" s="31"/>
-      <c r="F239" s="31"/>
-      <c r="G239" s="31"/>
-      <c r="H239" s="31"/>
-      <c r="I239" s="31"/>
-      <c r="J239" s="31"/>
-      <c r="K239" s="31"/>
-      <c r="L239" s="31"/>
-      <c r="M239" s="31"/>
-      <c r="N239" s="31"/>
-      <c r="O239" s="32"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12"/>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
+      <c r="J239" s="12"/>
+      <c r="K239" s="12"/>
+      <c r="L239" s="12"/>
+      <c r="M239" s="12"/>
+      <c r="N239" s="12"/>
+      <c r="O239" s="13"/>
     </row>
     <row r="240" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B240" s="30"/>
-      <c r="C240" s="31"/>
-      <c r="D240" s="31"/>
-      <c r="E240" s="31"/>
-      <c r="F240" s="31"/>
-      <c r="G240" s="31"/>
-      <c r="H240" s="31"/>
-      <c r="I240" s="31"/>
-      <c r="J240" s="31"/>
-      <c r="K240" s="31"/>
-      <c r="L240" s="31"/>
-      <c r="M240" s="31"/>
-      <c r="N240" s="31"/>
-      <c r="O240" s="32"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="12"/>
+      <c r="G240" s="12"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="12"/>
+      <c r="J240" s="12"/>
+      <c r="K240" s="12"/>
+      <c r="L240" s="12"/>
+      <c r="M240" s="12"/>
+      <c r="N240" s="12"/>
+      <c r="O240" s="13"/>
     </row>
     <row r="241" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B241" s="30"/>
-      <c r="C241" s="31"/>
-      <c r="D241" s="31"/>
-      <c r="E241" s="31"/>
-      <c r="F241" s="31"/>
-      <c r="G241" s="31"/>
-      <c r="H241" s="31"/>
-      <c r="I241" s="31"/>
-      <c r="J241" s="31"/>
-      <c r="K241" s="31"/>
-      <c r="L241" s="31"/>
-      <c r="M241" s="31"/>
-      <c r="N241" s="31"/>
-      <c r="O241" s="32"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
+      <c r="E241" s="12"/>
+      <c r="F241" s="12"/>
+      <c r="G241" s="12"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
+      <c r="J241" s="12"/>
+      <c r="K241" s="12"/>
+      <c r="L241" s="12"/>
+      <c r="M241" s="12"/>
+      <c r="N241" s="12"/>
+      <c r="O241" s="13"/>
     </row>
     <row r="242" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B242" s="30"/>
-      <c r="C242" s="31"/>
-      <c r="D242" s="31"/>
-      <c r="E242" s="31"/>
-      <c r="F242" s="31"/>
-      <c r="G242" s="31"/>
-      <c r="H242" s="31"/>
-      <c r="I242" s="31"/>
-      <c r="J242" s="31"/>
-      <c r="K242" s="31"/>
-      <c r="L242" s="31"/>
-      <c r="M242" s="31"/>
-      <c r="N242" s="31"/>
-      <c r="O242" s="32"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="12"/>
+      <c r="E242" s="12"/>
+      <c r="F242" s="12"/>
+      <c r="G242" s="12"/>
+      <c r="H242" s="12"/>
+      <c r="I242" s="12"/>
+      <c r="J242" s="12"/>
+      <c r="K242" s="12"/>
+      <c r="L242" s="12"/>
+      <c r="M242" s="12"/>
+      <c r="N242" s="12"/>
+      <c r="O242" s="13"/>
     </row>
     <row r="243" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B243" s="30"/>
-      <c r="C243" s="31"/>
-      <c r="D243" s="31"/>
-      <c r="E243" s="31"/>
-      <c r="F243" s="31"/>
-      <c r="G243" s="31"/>
-      <c r="H243" s="31"/>
-      <c r="I243" s="31"/>
-      <c r="J243" s="31"/>
-      <c r="K243" s="31"/>
-      <c r="L243" s="31"/>
-      <c r="M243" s="31"/>
-      <c r="N243" s="31"/>
-      <c r="O243" s="32"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="12"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="12"/>
+      <c r="J243" s="12"/>
+      <c r="K243" s="12"/>
+      <c r="L243" s="12"/>
+      <c r="M243" s="12"/>
+      <c r="N243" s="12"/>
+      <c r="O243" s="13"/>
     </row>
     <row r="244" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B244" s="30"/>
-      <c r="C244" s="31"/>
-      <c r="D244" s="31"/>
-      <c r="E244" s="31"/>
-      <c r="F244" s="31"/>
-      <c r="G244" s="31"/>
-      <c r="H244" s="31"/>
-      <c r="I244" s="31"/>
-      <c r="J244" s="31"/>
-      <c r="K244" s="31"/>
-      <c r="L244" s="31"/>
-      <c r="M244" s="31"/>
-      <c r="N244" s="31"/>
-      <c r="O244" s="32"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="12"/>
+      <c r="J244" s="12"/>
+      <c r="K244" s="12"/>
+      <c r="L244" s="12"/>
+      <c r="M244" s="12"/>
+      <c r="N244" s="12"/>
+      <c r="O244" s="13"/>
     </row>
     <row r="245" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B245" s="30"/>
-      <c r="C245" s="31"/>
-      <c r="D245" s="31"/>
-      <c r="E245" s="31"/>
-      <c r="F245" s="31"/>
-      <c r="G245" s="31"/>
-      <c r="H245" s="31"/>
-      <c r="I245" s="31"/>
-      <c r="J245" s="31"/>
-      <c r="K245" s="31"/>
-      <c r="L245" s="31"/>
-      <c r="M245" s="31"/>
-      <c r="N245" s="31"/>
-      <c r="O245" s="32"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="12"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12"/>
+      <c r="G245" s="12"/>
+      <c r="H245" s="12"/>
+      <c r="I245" s="12"/>
+      <c r="J245" s="12"/>
+      <c r="K245" s="12"/>
+      <c r="L245" s="12"/>
+      <c r="M245" s="12"/>
+      <c r="N245" s="12"/>
+      <c r="O245" s="13"/>
     </row>
     <row r="246" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B246" s="30"/>
-      <c r="C246" s="31"/>
-      <c r="D246" s="31"/>
-      <c r="E246" s="31"/>
-      <c r="F246" s="31"/>
-      <c r="G246" s="31"/>
-      <c r="H246" s="31"/>
-      <c r="I246" s="31"/>
-      <c r="J246" s="31"/>
-      <c r="K246" s="31"/>
-      <c r="L246" s="31"/>
-      <c r="M246" s="31"/>
-      <c r="N246" s="31"/>
-      <c r="O246" s="32"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12"/>
+      <c r="G246" s="12"/>
+      <c r="H246" s="12"/>
+      <c r="I246" s="12"/>
+      <c r="J246" s="12"/>
+      <c r="K246" s="12"/>
+      <c r="L246" s="12"/>
+      <c r="M246" s="12"/>
+      <c r="N246" s="12"/>
+      <c r="O246" s="13"/>
     </row>
     <row r="247" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B247" s="30"/>
-      <c r="C247" s="31"/>
-      <c r="D247" s="31"/>
-      <c r="E247" s="31"/>
-      <c r="F247" s="31"/>
-      <c r="G247" s="31"/>
-      <c r="H247" s="31"/>
-      <c r="I247" s="31"/>
-      <c r="J247" s="31"/>
-      <c r="K247" s="31"/>
-      <c r="L247" s="31"/>
-      <c r="M247" s="31"/>
-      <c r="N247" s="31"/>
-      <c r="O247" s="32"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="12"/>
+      <c r="G247" s="12"/>
+      <c r="H247" s="12"/>
+      <c r="I247" s="12"/>
+      <c r="J247" s="12"/>
+      <c r="K247" s="12"/>
+      <c r="L247" s="12"/>
+      <c r="M247" s="12"/>
+      <c r="N247" s="12"/>
+      <c r="O247" s="13"/>
     </row>
     <row r="248" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B248" s="30"/>
-      <c r="C248" s="31"/>
-      <c r="D248" s="31"/>
-      <c r="E248" s="31"/>
-      <c r="F248" s="31"/>
-      <c r="G248" s="31"/>
-      <c r="H248" s="31"/>
-      <c r="I248" s="31"/>
-      <c r="J248" s="31"/>
-      <c r="K248" s="31"/>
-      <c r="L248" s="31"/>
-      <c r="M248" s="31"/>
-      <c r="N248" s="31"/>
-      <c r="O248" s="32"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+      <c r="F248" s="12"/>
+      <c r="G248" s="12"/>
+      <c r="H248" s="12"/>
+      <c r="I248" s="12"/>
+      <c r="J248" s="12"/>
+      <c r="K248" s="12"/>
+      <c r="L248" s="12"/>
+      <c r="M248" s="12"/>
+      <c r="N248" s="12"/>
+      <c r="O248" s="13"/>
     </row>
     <row r="249" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B249" s="30"/>
-      <c r="C249" s="31"/>
-      <c r="D249" s="31"/>
-      <c r="E249" s="31"/>
-      <c r="F249" s="31"/>
-      <c r="G249" s="31"/>
-      <c r="H249" s="31"/>
-      <c r="I249" s="31"/>
-      <c r="J249" s="31"/>
-      <c r="K249" s="31"/>
-      <c r="L249" s="31"/>
-      <c r="M249" s="31"/>
-      <c r="N249" s="31"/>
-      <c r="O249" s="32"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="12"/>
+      <c r="G249" s="12"/>
+      <c r="H249" s="12"/>
+      <c r="I249" s="12"/>
+      <c r="J249" s="12"/>
+      <c r="K249" s="12"/>
+      <c r="L249" s="12"/>
+      <c r="M249" s="12"/>
+      <c r="N249" s="12"/>
+      <c r="O249" s="13"/>
     </row>
     <row r="250" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B250" s="30"/>
-      <c r="C250" s="31"/>
-      <c r="D250" s="31"/>
-      <c r="E250" s="31"/>
-      <c r="F250" s="31"/>
-      <c r="G250" s="31"/>
-      <c r="H250" s="31"/>
-      <c r="I250" s="31"/>
-      <c r="J250" s="31"/>
-      <c r="K250" s="31"/>
-      <c r="L250" s="31"/>
-      <c r="M250" s="31"/>
-      <c r="N250" s="31"/>
-      <c r="O250" s="32"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+      <c r="F250" s="12"/>
+      <c r="G250" s="12"/>
+      <c r="H250" s="12"/>
+      <c r="I250" s="12"/>
+      <c r="J250" s="12"/>
+      <c r="K250" s="12"/>
+      <c r="L250" s="12"/>
+      <c r="M250" s="12"/>
+      <c r="N250" s="12"/>
+      <c r="O250" s="13"/>
     </row>
     <row r="251" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B251" s="30"/>
-      <c r="C251" s="31"/>
-      <c r="D251" s="31"/>
-      <c r="E251" s="31"/>
-      <c r="F251" s="31"/>
-      <c r="G251" s="31"/>
-      <c r="H251" s="31"/>
-      <c r="I251" s="31"/>
-      <c r="J251" s="31"/>
-      <c r="K251" s="31"/>
-      <c r="L251" s="31"/>
-      <c r="M251" s="31"/>
-      <c r="N251" s="31"/>
-      <c r="O251" s="32"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="E251" s="12"/>
+      <c r="F251" s="12"/>
+      <c r="G251" s="12"/>
+      <c r="H251" s="12"/>
+      <c r="I251" s="12"/>
+      <c r="J251" s="12"/>
+      <c r="K251" s="12"/>
+      <c r="L251" s="12"/>
+      <c r="M251" s="12"/>
+      <c r="N251" s="12"/>
+      <c r="O251" s="13"/>
     </row>
     <row r="252" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B252" s="30"/>
-      <c r="C252" s="31"/>
-      <c r="D252" s="31"/>
-      <c r="E252" s="31"/>
-      <c r="F252" s="31"/>
-      <c r="G252" s="31"/>
-      <c r="H252" s="31"/>
-      <c r="I252" s="31"/>
-      <c r="J252" s="31"/>
-      <c r="K252" s="31"/>
-      <c r="L252" s="31"/>
-      <c r="M252" s="31"/>
-      <c r="N252" s="31"/>
-      <c r="O252" s="32"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="12"/>
+      <c r="F252" s="12"/>
+      <c r="G252" s="12"/>
+      <c r="H252" s="12"/>
+      <c r="I252" s="12"/>
+      <c r="J252" s="12"/>
+      <c r="K252" s="12"/>
+      <c r="L252" s="12"/>
+      <c r="M252" s="12"/>
+      <c r="N252" s="12"/>
+      <c r="O252" s="13"/>
     </row>
     <row r="253" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B253" s="30"/>
-      <c r="C253" s="31"/>
-      <c r="D253" s="31"/>
-      <c r="E253" s="31"/>
-      <c r="F253" s="31"/>
-      <c r="G253" s="31"/>
-      <c r="H253" s="31"/>
-      <c r="I253" s="31"/>
-      <c r="J253" s="31"/>
-      <c r="K253" s="31"/>
-      <c r="L253" s="31"/>
-      <c r="M253" s="31"/>
-      <c r="N253" s="31"/>
-      <c r="O253" s="32"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
+      <c r="F253" s="12"/>
+      <c r="G253" s="12"/>
+      <c r="H253" s="12"/>
+      <c r="I253" s="12"/>
+      <c r="J253" s="12"/>
+      <c r="K253" s="12"/>
+      <c r="L253" s="12"/>
+      <c r="M253" s="12"/>
+      <c r="N253" s="12"/>
+      <c r="O253" s="13"/>
     </row>
     <row r="254" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B254" s="30"/>
-      <c r="C254" s="31"/>
-      <c r="D254" s="31"/>
-      <c r="E254" s="31"/>
-      <c r="F254" s="31"/>
-      <c r="G254" s="31"/>
-      <c r="H254" s="31"/>
-      <c r="I254" s="31"/>
-      <c r="J254" s="31"/>
-      <c r="K254" s="31"/>
-      <c r="L254" s="31"/>
-      <c r="M254" s="31"/>
-      <c r="N254" s="31"/>
-      <c r="O254" s="32"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="12"/>
+      <c r="G254" s="12"/>
+      <c r="H254" s="12"/>
+      <c r="I254" s="12"/>
+      <c r="J254" s="12"/>
+      <c r="K254" s="12"/>
+      <c r="L254" s="12"/>
+      <c r="M254" s="12"/>
+      <c r="N254" s="12"/>
+      <c r="O254" s="13"/>
     </row>
     <row r="255" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B255" s="33"/>
-      <c r="C255" s="34"/>
-      <c r="D255" s="34"/>
-      <c r="E255" s="34"/>
-      <c r="F255" s="34"/>
-      <c r="G255" s="34"/>
-      <c r="H255" s="34"/>
-      <c r="I255" s="34"/>
-      <c r="J255" s="34"/>
-      <c r="K255" s="34"/>
-      <c r="L255" s="34"/>
-      <c r="M255" s="34"/>
-      <c r="N255" s="34"/>
-      <c r="O255" s="35"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="15"/>
+      <c r="E255" s="15"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="15"/>
+      <c r="H255" s="15"/>
+      <c r="I255" s="15"/>
+      <c r="J255" s="15"/>
+      <c r="K255" s="15"/>
+      <c r="L255" s="15"/>
+      <c r="M255" s="15"/>
+      <c r="N255" s="15"/>
+      <c r="O255" s="16"/>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B258" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="261" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B262" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B264" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H264" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H264" s="2" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="265" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C265" s="18"/>
+      <c r="D265" s="18"/>
+      <c r="E265" s="18"/>
+      <c r="F265" s="19"/>
+      <c r="I265" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C265" s="11"/>
-      <c r="D265" s="11"/>
-      <c r="E265" s="11"/>
-      <c r="F265" s="12"/>
-      <c r="I265" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J265" s="36"/>
-      <c r="K265" s="36"/>
-      <c r="L265" s="36"/>
-      <c r="M265" s="36"/>
-      <c r="N265" s="37"/>
+      <c r="J265" s="26"/>
+      <c r="K265" s="26"/>
+      <c r="L265" s="26"/>
+      <c r="M265" s="26"/>
+      <c r="N265" s="27"/>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B266" s="13"/>
-      <c r="C266" s="9"/>
-      <c r="D266" s="9"/>
-      <c r="E266" s="9"/>
-      <c r="F266" s="14"/>
-      <c r="I266" s="38"/>
-      <c r="J266" s="8"/>
-      <c r="K266" s="8"/>
-      <c r="L266" s="8"/>
-      <c r="M266" s="8"/>
-      <c r="N266" s="39"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="21"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="21"/>
+      <c r="F266" s="22"/>
+      <c r="I266" s="28"/>
+      <c r="J266" s="29"/>
+      <c r="K266" s="29"/>
+      <c r="L266" s="29"/>
+      <c r="M266" s="29"/>
+      <c r="N266" s="30"/>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B267" s="13"/>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9"/>
-      <c r="E267" s="9"/>
-      <c r="F267" s="14"/>
-      <c r="I267" s="38"/>
-      <c r="J267" s="8"/>
-      <c r="K267" s="8"/>
-      <c r="L267" s="8"/>
-      <c r="M267" s="8"/>
-      <c r="N267" s="39"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="21"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="21"/>
+      <c r="F267" s="22"/>
+      <c r="I267" s="28"/>
+      <c r="J267" s="29"/>
+      <c r="K267" s="29"/>
+      <c r="L267" s="29"/>
+      <c r="M267" s="29"/>
+      <c r="N267" s="30"/>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B268" s="13"/>
-      <c r="C268" s="9"/>
-      <c r="D268" s="9"/>
-      <c r="E268" s="9"/>
-      <c r="F268" s="14"/>
-      <c r="I268" s="38"/>
-      <c r="J268" s="8"/>
-      <c r="K268" s="8"/>
-      <c r="L268" s="8"/>
-      <c r="M268" s="8"/>
-      <c r="N268" s="39"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="21"/>
+      <c r="D268" s="21"/>
+      <c r="E268" s="21"/>
+      <c r="F268" s="22"/>
+      <c r="I268" s="28"/>
+      <c r="J268" s="29"/>
+      <c r="K268" s="29"/>
+      <c r="L268" s="29"/>
+      <c r="M268" s="29"/>
+      <c r="N268" s="30"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B269" s="15"/>
-      <c r="C269" s="16"/>
-      <c r="D269" s="16"/>
-      <c r="E269" s="16"/>
-      <c r="F269" s="17"/>
-      <c r="I269" s="40"/>
-      <c r="J269" s="41"/>
-      <c r="K269" s="41"/>
-      <c r="L269" s="41"/>
-      <c r="M269" s="41"/>
-      <c r="N269" s="42"/>
+      <c r="B269" s="23"/>
+      <c r="C269" s="24"/>
+      <c r="D269" s="24"/>
+      <c r="E269" s="24"/>
+      <c r="F269" s="25"/>
+      <c r="I269" s="31"/>
+      <c r="J269" s="32"/>
+      <c r="K269" s="32"/>
+      <c r="L269" s="32"/>
+      <c r="M269" s="32"/>
+      <c r="N269" s="33"/>
     </row>
     <row r="272" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="274" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B274" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C274" s="9"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9"/>
+      <c r="H274" s="9"/>
+      <c r="I274" s="9"/>
+      <c r="J274" s="9"/>
+      <c r="K274" s="10"/>
+      <c r="M274" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B275" s="11"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="12"/>
+      <c r="F275" s="12"/>
+      <c r="G275" s="12"/>
+      <c r="H275" s="12"/>
+      <c r="I275" s="12"/>
+      <c r="J275" s="12"/>
+      <c r="K275" s="13"/>
+      <c r="M275" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="276" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B276" s="11"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
+      <c r="F276" s="12"/>
+      <c r="G276" s="12"/>
+      <c r="H276" s="12"/>
+      <c r="I276" s="12"/>
+      <c r="J276" s="12"/>
+      <c r="K276" s="13"/>
+      <c r="M276" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="277" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B277" s="11"/>
+      <c r="C277" s="12"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="12"/>
+      <c r="F277" s="12"/>
+      <c r="G277" s="12"/>
+      <c r="H277" s="12"/>
+      <c r="I277" s="12"/>
+      <c r="J277" s="12"/>
+      <c r="K277" s="13"/>
+    </row>
+    <row r="278" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B278" s="11"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="12"/>
+      <c r="F278" s="12"/>
+      <c r="G278" s="12"/>
+      <c r="H278" s="12"/>
+      <c r="I278" s="12"/>
+      <c r="J278" s="12"/>
+      <c r="K278" s="13"/>
+      <c r="M278" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="279" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B279" s="11"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="12"/>
+      <c r="F279" s="12"/>
+      <c r="G279" s="12"/>
+      <c r="H279" s="12"/>
+      <c r="I279" s="12"/>
+      <c r="J279" s="12"/>
+      <c r="K279" s="13"/>
+    </row>
+    <row r="280" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B280" s="11"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
+      <c r="F280" s="12"/>
+      <c r="G280" s="12"/>
+      <c r="H280" s="12"/>
+      <c r="I280" s="12"/>
+      <c r="J280" s="12"/>
+      <c r="K280" s="13"/>
+      <c r="M280" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N280" s="9"/>
+      <c r="O280" s="9"/>
+      <c r="P280" s="9"/>
+      <c r="Q280" s="9"/>
+      <c r="R280" s="9"/>
+      <c r="S280" s="9"/>
+      <c r="T280" s="9"/>
+      <c r="U280" s="10"/>
+    </row>
+    <row r="281" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B281" s="11"/>
+      <c r="C281" s="12"/>
+      <c r="D281" s="12"/>
+      <c r="E281" s="12"/>
+      <c r="F281" s="12"/>
+      <c r="G281" s="12"/>
+      <c r="H281" s="12"/>
+      <c r="I281" s="12"/>
+      <c r="J281" s="12"/>
+      <c r="K281" s="13"/>
+      <c r="M281" s="11"/>
+      <c r="N281" s="12"/>
+      <c r="O281" s="12"/>
+      <c r="P281" s="12"/>
+      <c r="Q281" s="12"/>
+      <c r="R281" s="12"/>
+      <c r="S281" s="12"/>
+      <c r="T281" s="12"/>
+      <c r="U281" s="13"/>
+    </row>
+    <row r="282" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B282" s="11"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
+      <c r="F282" s="12"/>
+      <c r="G282" s="12"/>
+      <c r="H282" s="12"/>
+      <c r="I282" s="12"/>
+      <c r="J282" s="12"/>
+      <c r="K282" s="13"/>
+      <c r="M282" s="11"/>
+      <c r="N282" s="12"/>
+      <c r="O282" s="12"/>
+      <c r="P282" s="12"/>
+      <c r="Q282" s="12"/>
+      <c r="R282" s="12"/>
+      <c r="S282" s="12"/>
+      <c r="T282" s="12"/>
+      <c r="U282" s="13"/>
+    </row>
+    <row r="283" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B283" s="11"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
+      <c r="F283" s="12"/>
+      <c r="G283" s="12"/>
+      <c r="H283" s="12"/>
+      <c r="I283" s="12"/>
+      <c r="J283" s="12"/>
+      <c r="K283" s="13"/>
+      <c r="M283" s="11"/>
+      <c r="N283" s="12"/>
+      <c r="O283" s="12"/>
+      <c r="P283" s="12"/>
+      <c r="Q283" s="12"/>
+      <c r="R283" s="12"/>
+      <c r="S283" s="12"/>
+      <c r="T283" s="12"/>
+      <c r="U283" s="13"/>
+    </row>
+    <row r="284" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B284" s="11"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
+      <c r="F284" s="12"/>
+      <c r="G284" s="12"/>
+      <c r="H284" s="12"/>
+      <c r="I284" s="12"/>
+      <c r="J284" s="12"/>
+      <c r="K284" s="13"/>
+      <c r="M284" s="11"/>
+      <c r="N284" s="12"/>
+      <c r="O284" s="12"/>
+      <c r="P284" s="12"/>
+      <c r="Q284" s="12"/>
+      <c r="R284" s="12"/>
+      <c r="S284" s="12"/>
+      <c r="T284" s="12"/>
+      <c r="U284" s="13"/>
+    </row>
+    <row r="285" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B285" s="11"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="12"/>
+      <c r="E285" s="12"/>
+      <c r="F285" s="12"/>
+      <c r="G285" s="12"/>
+      <c r="H285" s="12"/>
+      <c r="I285" s="12"/>
+      <c r="J285" s="12"/>
+      <c r="K285" s="13"/>
+      <c r="M285" s="11"/>
+      <c r="N285" s="12"/>
+      <c r="O285" s="12"/>
+      <c r="P285" s="12"/>
+      <c r="Q285" s="12"/>
+      <c r="R285" s="12"/>
+      <c r="S285" s="12"/>
+      <c r="T285" s="12"/>
+      <c r="U285" s="13"/>
+    </row>
+    <row r="286" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B286" s="11"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="12"/>
+      <c r="E286" s="12"/>
+      <c r="F286" s="12"/>
+      <c r="G286" s="12"/>
+      <c r="H286" s="12"/>
+      <c r="I286" s="12"/>
+      <c r="J286" s="12"/>
+      <c r="K286" s="13"/>
+      <c r="M286" s="11"/>
+      <c r="N286" s="12"/>
+      <c r="O286" s="12"/>
+      <c r="P286" s="12"/>
+      <c r="Q286" s="12"/>
+      <c r="R286" s="12"/>
+      <c r="S286" s="12"/>
+      <c r="T286" s="12"/>
+      <c r="U286" s="13"/>
+    </row>
+    <row r="287" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B287" s="11"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
+      <c r="F287" s="12"/>
+      <c r="G287" s="12"/>
+      <c r="H287" s="12"/>
+      <c r="I287" s="12"/>
+      <c r="J287" s="12"/>
+      <c r="K287" s="13"/>
+      <c r="M287" s="11"/>
+      <c r="N287" s="12"/>
+      <c r="O287" s="12"/>
+      <c r="P287" s="12"/>
+      <c r="Q287" s="12"/>
+      <c r="R287" s="12"/>
+      <c r="S287" s="12"/>
+      <c r="T287" s="12"/>
+      <c r="U287" s="13"/>
+    </row>
+    <row r="288" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B288" s="11"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
+      <c r="F288" s="12"/>
+      <c r="G288" s="12"/>
+      <c r="H288" s="12"/>
+      <c r="I288" s="12"/>
+      <c r="J288" s="12"/>
+      <c r="K288" s="13"/>
+      <c r="M288" s="11"/>
+      <c r="N288" s="12"/>
+      <c r="O288" s="12"/>
+      <c r="P288" s="12"/>
+      <c r="Q288" s="12"/>
+      <c r="R288" s="12"/>
+      <c r="S288" s="12"/>
+      <c r="T288" s="12"/>
+      <c r="U288" s="13"/>
+    </row>
+    <row r="289" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B289" s="11"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
+      <c r="F289" s="12"/>
+      <c r="G289" s="12"/>
+      <c r="H289" s="12"/>
+      <c r="I289" s="12"/>
+      <c r="J289" s="12"/>
+      <c r="K289" s="13"/>
+      <c r="M289" s="11"/>
+      <c r="N289" s="12"/>
+      <c r="O289" s="12"/>
+      <c r="P289" s="12"/>
+      <c r="Q289" s="12"/>
+      <c r="R289" s="12"/>
+      <c r="S289" s="12"/>
+      <c r="T289" s="12"/>
+      <c r="U289" s="13"/>
+    </row>
+    <row r="290" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B290" s="11"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="12"/>
+      <c r="F290" s="12"/>
+      <c r="G290" s="12"/>
+      <c r="H290" s="12"/>
+      <c r="I290" s="12"/>
+      <c r="J290" s="12"/>
+      <c r="K290" s="13"/>
+      <c r="M290" s="11"/>
+      <c r="N290" s="12"/>
+      <c r="O290" s="12"/>
+      <c r="P290" s="12"/>
+      <c r="Q290" s="12"/>
+      <c r="R290" s="12"/>
+      <c r="S290" s="12"/>
+      <c r="T290" s="12"/>
+      <c r="U290" s="13"/>
+    </row>
+    <row r="291" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B291" s="11"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
+      <c r="F291" s="12"/>
+      <c r="G291" s="12"/>
+      <c r="H291" s="12"/>
+      <c r="I291" s="12"/>
+      <c r="J291" s="12"/>
+      <c r="K291" s="13"/>
+      <c r="M291" s="11"/>
+      <c r="N291" s="12"/>
+      <c r="O291" s="12"/>
+      <c r="P291" s="12"/>
+      <c r="Q291" s="12"/>
+      <c r="R291" s="12"/>
+      <c r="S291" s="12"/>
+      <c r="T291" s="12"/>
+      <c r="U291" s="13"/>
+    </row>
+    <row r="292" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B292" s="11"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
+      <c r="F292" s="12"/>
+      <c r="G292" s="12"/>
+      <c r="H292" s="12"/>
+      <c r="I292" s="12"/>
+      <c r="J292" s="12"/>
+      <c r="K292" s="13"/>
+      <c r="M292" s="11"/>
+      <c r="N292" s="12"/>
+      <c r="O292" s="12"/>
+      <c r="P292" s="12"/>
+      <c r="Q292" s="12"/>
+      <c r="R292" s="12"/>
+      <c r="S292" s="12"/>
+      <c r="T292" s="12"/>
+      <c r="U292" s="13"/>
+    </row>
+    <row r="293" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B293" s="11"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
+      <c r="F293" s="12"/>
+      <c r="G293" s="12"/>
+      <c r="H293" s="12"/>
+      <c r="I293" s="12"/>
+      <c r="J293" s="12"/>
+      <c r="K293" s="13"/>
+      <c r="M293" s="11"/>
+      <c r="N293" s="12"/>
+      <c r="O293" s="12"/>
+      <c r="P293" s="12"/>
+      <c r="Q293" s="12"/>
+      <c r="R293" s="12"/>
+      <c r="S293" s="12"/>
+      <c r="T293" s="12"/>
+      <c r="U293" s="13"/>
+    </row>
+    <row r="294" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B294" s="11"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="12"/>
+      <c r="F294" s="12"/>
+      <c r="G294" s="12"/>
+      <c r="H294" s="12"/>
+      <c r="I294" s="12"/>
+      <c r="J294" s="12"/>
+      <c r="K294" s="13"/>
+      <c r="M294" s="11"/>
+      <c r="N294" s="12"/>
+      <c r="O294" s="12"/>
+      <c r="P294" s="12"/>
+      <c r="Q294" s="12"/>
+      <c r="R294" s="12"/>
+      <c r="S294" s="12"/>
+      <c r="T294" s="12"/>
+      <c r="U294" s="13"/>
+    </row>
+    <row r="295" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B295" s="11"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
+      <c r="F295" s="12"/>
+      <c r="G295" s="12"/>
+      <c r="H295" s="12"/>
+      <c r="I295" s="12"/>
+      <c r="J295" s="12"/>
+      <c r="K295" s="13"/>
+      <c r="M295" s="11"/>
+      <c r="N295" s="12"/>
+      <c r="O295" s="12"/>
+      <c r="P295" s="12"/>
+      <c r="Q295" s="12"/>
+      <c r="R295" s="12"/>
+      <c r="S295" s="12"/>
+      <c r="T295" s="12"/>
+      <c r="U295" s="13"/>
+    </row>
+    <row r="296" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B296" s="11"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
+      <c r="F296" s="12"/>
+      <c r="G296" s="12"/>
+      <c r="H296" s="12"/>
+      <c r="I296" s="12"/>
+      <c r="J296" s="12"/>
+      <c r="K296" s="13"/>
+      <c r="M296" s="14"/>
+      <c r="N296" s="15"/>
+      <c r="O296" s="15"/>
+      <c r="P296" s="15"/>
+      <c r="Q296" s="15"/>
+      <c r="R296" s="15"/>
+      <c r="S296" s="15"/>
+      <c r="T296" s="15"/>
+      <c r="U296" s="16"/>
+    </row>
+    <row r="297" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B297" s="11"/>
+      <c r="C297" s="12"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="12"/>
+      <c r="F297" s="12"/>
+      <c r="G297" s="12"/>
+      <c r="H297" s="12"/>
+      <c r="I297" s="12"/>
+      <c r="J297" s="12"/>
+      <c r="K297" s="13"/>
+    </row>
+    <row r="298" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B298" s="11"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="12"/>
+      <c r="F298" s="12"/>
+      <c r="G298" s="12"/>
+      <c r="H298" s="12"/>
+      <c r="I298" s="12"/>
+      <c r="J298" s="12"/>
+      <c r="K298" s="13"/>
+    </row>
+    <row r="299" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B299" s="11"/>
+      <c r="C299" s="12"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
+      <c r="F299" s="12"/>
+      <c r="G299" s="12"/>
+      <c r="H299" s="12"/>
+      <c r="I299" s="12"/>
+      <c r="J299" s="12"/>
+      <c r="K299" s="13"/>
+    </row>
+    <row r="300" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B300" s="11"/>
+      <c r="C300" s="12"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="12"/>
+      <c r="F300" s="12"/>
+      <c r="G300" s="12"/>
+      <c r="H300" s="12"/>
+      <c r="I300" s="12"/>
+      <c r="J300" s="12"/>
+      <c r="K300" s="13"/>
+    </row>
+    <row r="301" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B301" s="11"/>
+      <c r="C301" s="12"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
+      <c r="F301" s="12"/>
+      <c r="G301" s="12"/>
+      <c r="H301" s="12"/>
+      <c r="I301" s="12"/>
+      <c r="J301" s="12"/>
+      <c r="K301" s="13"/>
+    </row>
+    <row r="302" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B302" s="11"/>
+      <c r="C302" s="12"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="12"/>
+      <c r="F302" s="12"/>
+      <c r="G302" s="12"/>
+      <c r="H302" s="12"/>
+      <c r="I302" s="12"/>
+      <c r="J302" s="12"/>
+      <c r="K302" s="13"/>
+    </row>
+    <row r="303" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B303" s="11"/>
+      <c r="C303" s="12"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12"/>
+      <c r="F303" s="12"/>
+      <c r="G303" s="12"/>
+      <c r="H303" s="12"/>
+      <c r="I303" s="12"/>
+      <c r="J303" s="12"/>
+      <c r="K303" s="13"/>
+    </row>
+    <row r="304" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B304" s="14"/>
+      <c r="C304" s="15"/>
+      <c r="D304" s="15"/>
+      <c r="E304" s="15"/>
+      <c r="F304" s="15"/>
+      <c r="G304" s="15"/>
+      <c r="H304" s="15"/>
+      <c r="I304" s="15"/>
+      <c r="J304" s="15"/>
+      <c r="K304" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B274:K304"/>
+    <mergeCell ref="M280:U296"/>
     <mergeCell ref="S26:V29"/>
     <mergeCell ref="B265:F269"/>
     <mergeCell ref="I265:N269"/>
@@ -3706,12 +4322,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4084ABA3-7655-4142-B4B4-11923A1A3D10}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>